--- a/tests/Feature/config/property-rental_zero.xlsx
+++ b/tests/Feature/config/property-rental_zero.xlsx
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -151,13 +151,13 @@
     <t>Here I live</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>Rental 10000 pr monthKommunale/Forsikring/Strøm/Eiendomsskatt 7300 mndSelling part of the house Asset rule Using current amount: 3000000 * 1</t>
+    <t>Rental 10000 pr monthKommunale/Forsikring/Strøm/Eiendomsskatt 7300 mndSelling part of the house Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3000000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
     <t>total</t>
@@ -573,16 +573,16 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -3204,17 +3204,17 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>15000.0</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>68123.0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>1431877.0</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -3225,13 +3225,13 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>3000000.0</v>
+        <v>1568123.0</v>
       </c>
       <c r="S38" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>3000000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
         <v>750000.0</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -3283,17 +3283,17 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>14319.0</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>68804.0</v>
       </c>
       <c r="M39" s="8">
-        <v>0</v>
+        <v>1363073.0</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
@@ -3304,13 +3304,13 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>3000000.0</v>
+        <v>1636927.0</v>
       </c>
       <c r="S39" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>3000000.0</v>
+        <v>1583123.0</v>
       </c>
       <c r="U39" s="8">
         <v>750000.0</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
-        <v>0</v>
+        <v>13631.0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>69492.0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>1293581.0</v>
       </c>
       <c r="N40" s="11">
         <v>0</v>
@@ -3383,13 +3383,13 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>3000000.0</v>
+        <v>1706419.0</v>
       </c>
       <c r="S40" s="11">
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>3000000.0</v>
+        <v>1666246.0</v>
       </c>
       <c r="U40" s="11">
         <v>750000.0</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -3441,17 +3441,17 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>12936.0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>70187.0</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>1223393.0</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3462,13 +3462,13 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>3000000.0</v>
+        <v>1776607.0</v>
       </c>
       <c r="S41" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>3000000.0</v>
+        <v>1749369.0</v>
       </c>
       <c r="U41" s="6">
         <v>750000.0</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3520,17 +3520,17 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>12234.0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>70889.0</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>1152504.0</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -3541,13 +3541,13 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>3000000.0</v>
+        <v>1847496.0</v>
       </c>
       <c r="S42" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>3000000.0</v>
+        <v>1832492.0</v>
       </c>
       <c r="U42" s="6">
         <v>750000.0</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3599,17 +3599,17 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>11525.0</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>71598.0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>1080906.0</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -3620,13 +3620,13 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3000000.0</v>
+        <v>1919094.0</v>
       </c>
       <c r="S43" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>3000000.0</v>
+        <v>1915615.0</v>
       </c>
       <c r="U43" s="6">
         <v>750000.0</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -3678,17 +3678,17 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>10809.0</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>72314.0</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>1008593.0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -3699,13 +3699,13 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3000000.0</v>
+        <v>1991407.0</v>
       </c>
       <c r="S44" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>3000000.0</v>
+        <v>1998738.0</v>
       </c>
       <c r="U44" s="6">
         <v>750000.0</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -3757,17 +3757,17 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>10086.0</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>73037.0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>935555.0</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3778,13 +3778,13 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3000000.0</v>
+        <v>2064445.0</v>
       </c>
       <c r="S45" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>3000000.0</v>
+        <v>2081861.0</v>
       </c>
       <c r="U45" s="6">
         <v>750000.0</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -3836,17 +3836,17 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>9356.0</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>73767.0</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>861788.0</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>3000000.0</v>
+        <v>2138212.0</v>
       </c>
       <c r="S46" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>3000000.0</v>
+        <v>2164984.0</v>
       </c>
       <c r="U46" s="6">
         <v>750000.0</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -3915,17 +3915,17 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>8618.0</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>74505.0</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>787283.0</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -3936,13 +3936,13 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>3000000.0</v>
+        <v>2212717.0</v>
       </c>
       <c r="S47" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>3000000.0</v>
+        <v>2248107.0</v>
       </c>
       <c r="U47" s="6">
         <v>750000.0</v>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -3994,17 +3994,17 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>7873.0</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>75250.0</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>712033.0</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -4015,13 +4015,13 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>3000000.0</v>
+        <v>2287967.0</v>
       </c>
       <c r="S48" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>3000000.0</v>
+        <v>2331230.0</v>
       </c>
       <c r="U48" s="6">
         <v>750000.0</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>7120.0</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>76003.0</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>636030.0</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -4094,13 +4094,13 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3000000.0</v>
+        <v>2363970.0</v>
       </c>
       <c r="S49" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>3000000.0</v>
+        <v>2414353.0</v>
       </c>
       <c r="U49" s="6">
         <v>750000.0</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -4152,17 +4152,17 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>6360.0</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>76763.0</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>559268.0</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -4173,13 +4173,13 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3000000.0</v>
+        <v>2440732.0</v>
       </c>
       <c r="S50" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>3000000.0</v>
+        <v>2497476.0</v>
       </c>
       <c r="U50" s="6">
         <v>750000.0</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -4231,17 +4231,17 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>5593.0</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>77530.0</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>481737.0</v>
       </c>
       <c r="N51" s="1">
         <v>0</v>
@@ -4252,13 +4252,13 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3000000.0</v>
+        <v>2518263.0</v>
       </c>
       <c r="S51" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>3000000.0</v>
+        <v>2580599.0</v>
       </c>
       <c r="U51" s="6">
         <v>750000.0</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -4310,17 +4310,17 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>4817.0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>78306.0</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>403432.0</v>
       </c>
       <c r="N52" s="1">
         <v>0</v>
@@ -4331,13 +4331,13 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3000000.0</v>
+        <v>2596568.0</v>
       </c>
       <c r="S52" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>3000000.0</v>
+        <v>2663722.0</v>
       </c>
       <c r="U52" s="6">
         <v>750000.0</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -4389,17 +4389,17 @@
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
-        <v>0</v>
+        <v>4034.0</v>
       </c>
       <c r="L53" s="13">
-        <v>0</v>
+        <v>79089.0</v>
       </c>
       <c r="M53" s="13">
-        <v>0</v>
+        <v>324343.0</v>
       </c>
       <c r="N53" s="13">
         <v>0</v>
@@ -4410,13 +4410,13 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3000000.0</v>
+        <v>2675657.0</v>
       </c>
       <c r="S53" s="13">
         <v>3000000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>3000000.0</v>
+        <v>2746845.0</v>
       </c>
       <c r="U53" s="13">
         <v>750000.0</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>3243.0</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>79880.0</v>
       </c>
       <c r="M54" s="1">
-        <v>0</v>
+        <v>244463.0</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -4489,13 +4489,13 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3000000.0</v>
+        <v>2755537.0</v>
       </c>
       <c r="S54" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>3000000.0</v>
+        <v>2829968.0</v>
       </c>
       <c r="U54" s="6">
         <v>750000.0</v>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -4547,17 +4547,17 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>2445.0</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>80678.0</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>163785.0</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -4568,13 +4568,13 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3000000.0</v>
+        <v>2836215.0</v>
       </c>
       <c r="S55" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>3000000.0</v>
+        <v>2913091.0</v>
       </c>
       <c r="U55" s="6">
         <v>750000.0</v>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -4626,17 +4626,17 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1638.0</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>81485.0</v>
       </c>
       <c r="M56" s="1">
-        <v>0</v>
+        <v>82300.0</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -4647,13 +4647,13 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3000000.0</v>
+        <v>2917700.0</v>
       </c>
       <c r="S56" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>3000000.0</v>
+        <v>2996214.0</v>
       </c>
       <c r="U56" s="6">
         <v>750000.0</v>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -4705,17 +4705,17 @@
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
-        <v>0</v>
+        <v>823.0</v>
       </c>
       <c r="L57" s="13">
-        <v>0</v>
+        <v>82300.0</v>
       </c>
       <c r="M57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N57" s="13">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U57" s="13">
         <v>750000.0</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -4811,7 +4811,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U58" s="6">
         <v>750000.0</v>
@@ -4890,7 +4890,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U59" s="6">
         <v>750000.0</v>
@@ -4969,7 +4969,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U60" s="6">
         <v>750000.0</v>
@@ -5048,7 +5048,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U61" s="6">
         <v>750000.0</v>
@@ -5127,7 +5127,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U62" s="6">
         <v>750000.0</v>
@@ -5206,7 +5206,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U63" s="6">
         <v>750000.0</v>
@@ -5285,7 +5285,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U64" s="6">
         <v>750000.0</v>
@@ -5364,7 +5364,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U65" s="6">
         <v>750000.0</v>
@@ -5443,7 +5443,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U66" s="6">
         <v>750000.0</v>
@@ -5522,7 +5522,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U67" s="6">
         <v>750000.0</v>
@@ -5601,7 +5601,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U68" s="6">
         <v>750000.0</v>
@@ -5680,7 +5680,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U69" s="6">
         <v>750000.0</v>
@@ -5759,7 +5759,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U70" s="6">
         <v>750000.0</v>
@@ -5838,7 +5838,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U71" s="6">
         <v>750000.0</v>
@@ -5917,7 +5917,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U72" s="5">
         <v>750000.0</v>
@@ -6228,16 +6228,16 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8606,11 +8606,21 @@
         <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="I38" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K38" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>68123.0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1431877.0</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
@@ -8618,13 +8628,13 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>3000000.0</v>
+        <v>1568123.0</v>
       </c>
       <c r="S38" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>3000000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
         <v>750000.0</v>
@@ -8633,13 +8643,13 @@
         <v>0.25</v>
       </c>
       <c r="W38" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -8681,11 +8691,21 @@
         <v>0.0</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="I39" s="8">
+        <v>83123.0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K39" s="8">
+        <v>14319.0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>68804.0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1363073.0</v>
+      </c>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
@@ -8693,13 +8713,13 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>3000000.0</v>
+        <v>1636927.0</v>
       </c>
       <c r="S39" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>3000000.0</v>
+        <v>1583123.0</v>
       </c>
       <c r="U39" s="8">
         <v>750000.0</v>
@@ -8708,13 +8728,13 @@
         <v>0.25</v>
       </c>
       <c r="W39" s="8">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -8756,11 +8776,21 @@
         <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="I40" s="11">
+        <v>83123.0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="11">
+        <v>13631.0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>69492.0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1293581.0</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
@@ -8768,13 +8798,13 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>3000000.0</v>
+        <v>1706419.0</v>
       </c>
       <c r="S40" s="11">
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>3000000.0</v>
+        <v>1666246.0</v>
       </c>
       <c r="U40" s="11">
         <v>750000.0</v>
@@ -8783,13 +8813,13 @@
         <v>0.25</v>
       </c>
       <c r="W40" s="11">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -8831,11 +8861,21 @@
         <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="I41" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12936.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>70187.0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1223393.0</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
@@ -8843,13 +8883,13 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>3000000.0</v>
+        <v>1776607.0</v>
       </c>
       <c r="S41" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>3000000.0</v>
+        <v>1749369.0</v>
       </c>
       <c r="U41" s="6">
         <v>750000.0</v>
@@ -8858,13 +8898,13 @@
         <v>0.25</v>
       </c>
       <c r="W41" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -8906,11 +8946,21 @@
         <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12234.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>70889.0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1152504.0</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
@@ -8918,13 +8968,13 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>3000000.0</v>
+        <v>1847496.0</v>
       </c>
       <c r="S42" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>3000000.0</v>
+        <v>1832492.0</v>
       </c>
       <c r="U42" s="6">
         <v>750000.0</v>
@@ -8933,13 +8983,13 @@
         <v>0.25</v>
       </c>
       <c r="W42" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -8981,11 +9031,21 @@
         <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="I43" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="1">
+        <v>11525.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>71598.0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1080906.0</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
@@ -8993,13 +9053,13 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3000000.0</v>
+        <v>1919094.0</v>
       </c>
       <c r="S43" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>3000000.0</v>
+        <v>1915615.0</v>
       </c>
       <c r="U43" s="6">
         <v>750000.0</v>
@@ -9008,13 +9068,13 @@
         <v>0.25</v>
       </c>
       <c r="W43" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -9056,11 +9116,21 @@
         <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10809.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>72314.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1008593.0</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
@@ -9068,13 +9138,13 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3000000.0</v>
+        <v>1991407.0</v>
       </c>
       <c r="S44" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>3000000.0</v>
+        <v>1998738.0</v>
       </c>
       <c r="U44" s="6">
         <v>750000.0</v>
@@ -9083,13 +9153,13 @@
         <v>0.25</v>
       </c>
       <c r="W44" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -9131,11 +9201,21 @@
         <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="I45" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10086.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>73037.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>935555.0</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
@@ -9143,13 +9223,13 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3000000.0</v>
+        <v>2064445.0</v>
       </c>
       <c r="S45" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>3000000.0</v>
+        <v>2081861.0</v>
       </c>
       <c r="U45" s="6">
         <v>750000.0</v>
@@ -9158,13 +9238,13 @@
         <v>0.25</v>
       </c>
       <c r="W45" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -9206,11 +9286,21 @@
         <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="I46" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9356.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>73767.0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>861788.0</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
@@ -9218,13 +9308,13 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>3000000.0</v>
+        <v>2138212.0</v>
       </c>
       <c r="S46" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>3000000.0</v>
+        <v>2164984.0</v>
       </c>
       <c r="U46" s="6">
         <v>750000.0</v>
@@ -9233,13 +9323,13 @@
         <v>0.25</v>
       </c>
       <c r="W46" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -9281,11 +9371,21 @@
         <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="I47" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8618.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>74505.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>787283.0</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
@@ -9293,13 +9393,13 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>3000000.0</v>
+        <v>2212717.0</v>
       </c>
       <c r="S47" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>3000000.0</v>
+        <v>2248107.0</v>
       </c>
       <c r="U47" s="6">
         <v>750000.0</v>
@@ -9308,13 +9408,13 @@
         <v>0.25</v>
       </c>
       <c r="W47" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -9356,11 +9456,21 @@
         <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="I48" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K48" s="1">
+        <v>7873.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>75250.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>712033.0</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
@@ -9368,13 +9478,13 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>3000000.0</v>
+        <v>2287967.0</v>
       </c>
       <c r="S48" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>3000000.0</v>
+        <v>2331230.0</v>
       </c>
       <c r="U48" s="6">
         <v>750000.0</v>
@@ -9383,13 +9493,13 @@
         <v>0.25</v>
       </c>
       <c r="W48" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -9431,11 +9541,21 @@
         <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="I49" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K49" s="1">
+        <v>7120.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>76003.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>636030.0</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
@@ -9443,13 +9563,13 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3000000.0</v>
+        <v>2363970.0</v>
       </c>
       <c r="S49" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>3000000.0</v>
+        <v>2414353.0</v>
       </c>
       <c r="U49" s="6">
         <v>750000.0</v>
@@ -9458,13 +9578,13 @@
         <v>0.25</v>
       </c>
       <c r="W49" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -9506,11 +9626,21 @@
         <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="I50" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="1">
+        <v>6360.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>76763.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>559268.0</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
@@ -9518,13 +9648,13 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3000000.0</v>
+        <v>2440732.0</v>
       </c>
       <c r="S50" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>3000000.0</v>
+        <v>2497476.0</v>
       </c>
       <c r="U50" s="6">
         <v>750000.0</v>
@@ -9533,13 +9663,13 @@
         <v>0.25</v>
       </c>
       <c r="W50" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -9581,11 +9711,21 @@
         <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="I51" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K51" s="1">
+        <v>5593.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>77530.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>481737.0</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
@@ -9593,13 +9733,13 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3000000.0</v>
+        <v>2518263.0</v>
       </c>
       <c r="S51" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>3000000.0</v>
+        <v>2580599.0</v>
       </c>
       <c r="U51" s="6">
         <v>750000.0</v>
@@ -9608,13 +9748,13 @@
         <v>0.25</v>
       </c>
       <c r="W51" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -9656,11 +9796,21 @@
         <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="I52" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4817.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>78306.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>403432.0</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
@@ -9668,13 +9818,13 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3000000.0</v>
+        <v>2596568.0</v>
       </c>
       <c r="S52" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>3000000.0</v>
+        <v>2663722.0</v>
       </c>
       <c r="U52" s="6">
         <v>750000.0</v>
@@ -9683,13 +9833,13 @@
         <v>0.25</v>
       </c>
       <c r="W52" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -9731,11 +9881,21 @@
         <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="I53" s="13">
+        <v>83123.0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="13">
+        <v>4034.0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>79089.0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>324343.0</v>
+      </c>
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
@@ -9743,13 +9903,13 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3000000.0</v>
+        <v>2675657.0</v>
       </c>
       <c r="S53" s="13">
         <v>3000000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>3000000.0</v>
+        <v>2746845.0</v>
       </c>
       <c r="U53" s="13">
         <v>750000.0</v>
@@ -9758,13 +9918,13 @@
         <v>0.25</v>
       </c>
       <c r="W53" s="13">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -9806,11 +9966,21 @@
         <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="I54" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3243.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>79880.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>244463.0</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
@@ -9818,13 +9988,13 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3000000.0</v>
+        <v>2755537.0</v>
       </c>
       <c r="S54" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>3000000.0</v>
+        <v>2829968.0</v>
       </c>
       <c r="U54" s="6">
         <v>750000.0</v>
@@ -9833,13 +10003,13 @@
         <v>0.25</v>
       </c>
       <c r="W54" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -9881,11 +10051,21 @@
         <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="I55" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2445.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>80678.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>163785.0</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
@@ -9893,13 +10073,13 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3000000.0</v>
+        <v>2836215.0</v>
       </c>
       <c r="S55" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>3000000.0</v>
+        <v>2913091.0</v>
       </c>
       <c r="U55" s="6">
         <v>750000.0</v>
@@ -9908,13 +10088,13 @@
         <v>0.25</v>
       </c>
       <c r="W55" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -9956,11 +10136,21 @@
         <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="I56" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1638.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>81485.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>82300.0</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
@@ -9968,13 +10158,13 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3000000.0</v>
+        <v>2917700.0</v>
       </c>
       <c r="S56" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>3000000.0</v>
+        <v>2996214.0</v>
       </c>
       <c r="U56" s="6">
         <v>750000.0</v>
@@ -9983,13 +10173,13 @@
         <v>0.25</v>
       </c>
       <c r="W56" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -10031,11 +10221,21 @@
         <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="I57" s="13">
+        <v>83123.0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="13">
+        <v>823.0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>82300.0</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
@@ -10049,7 +10249,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U57" s="13">
         <v>750000.0</v>
@@ -10058,13 +10258,13 @@
         <v>0.25</v>
       </c>
       <c r="W57" s="13">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>32400.0</v>
+        <v>-50723.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -10124,7 +10324,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U58" s="6">
         <v>750000.0</v>
@@ -10133,7 +10333,7 @@
         <v>0.25</v>
       </c>
       <c r="W58" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -10199,7 +10399,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U59" s="6">
         <v>750000.0</v>
@@ -10208,7 +10408,7 @@
         <v>0.25</v>
       </c>
       <c r="W59" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -10274,7 +10474,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U60" s="6">
         <v>750000.0</v>
@@ -10283,7 +10483,7 @@
         <v>0.25</v>
       </c>
       <c r="W60" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -10349,7 +10549,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U61" s="6">
         <v>750000.0</v>
@@ -10358,7 +10558,7 @@
         <v>0.25</v>
       </c>
       <c r="W61" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -10424,7 +10624,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U62" s="6">
         <v>750000.0</v>
@@ -10433,7 +10633,7 @@
         <v>0.25</v>
       </c>
       <c r="W62" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -10499,7 +10699,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U63" s="6">
         <v>750000.0</v>
@@ -10508,7 +10708,7 @@
         <v>0.25</v>
       </c>
       <c r="W63" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -10574,7 +10774,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U64" s="6">
         <v>750000.0</v>
@@ -10583,7 +10783,7 @@
         <v>0.25</v>
       </c>
       <c r="W64" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -10649,7 +10849,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U65" s="6">
         <v>750000.0</v>
@@ -10658,7 +10858,7 @@
         <v>0.25</v>
       </c>
       <c r="W65" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -10724,7 +10924,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U66" s="6">
         <v>750000.0</v>
@@ -10733,7 +10933,7 @@
         <v>0.25</v>
       </c>
       <c r="W66" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10799,7 +10999,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U67" s="6">
         <v>750000.0</v>
@@ -10808,7 +11008,7 @@
         <v>0.25</v>
       </c>
       <c r="W67" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10874,7 +11074,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U68" s="6">
         <v>750000.0</v>
@@ -10883,7 +11083,7 @@
         <v>0.25</v>
       </c>
       <c r="W68" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10949,7 +11149,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U69" s="6">
         <v>750000.0</v>
@@ -10958,7 +11158,7 @@
         <v>0.25</v>
       </c>
       <c r="W69" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -11024,7 +11224,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U70" s="6">
         <v>750000.0</v>
@@ -11033,7 +11233,7 @@
         <v>0.25</v>
       </c>
       <c r="W70" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -11099,7 +11299,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U71" s="6">
         <v>750000.0</v>
@@ -11108,7 +11308,7 @@
         <v>0.25</v>
       </c>
       <c r="W71" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -11174,7 +11374,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U72" s="5">
         <v>750000.0</v>
@@ -11183,7 +11383,7 @@
         <v>0.25</v>
       </c>
       <c r="W72" s="5">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
